--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -7,10 +7,8 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="配置说明" sheetId="2" r:id="rId5"/>
+    <sheet name="Bus结构创建" sheetId="2" r:id="rId5"/>
     <sheet name="Bus创建" sheetId="3" r:id="rId6"/>
-    <sheet name="Aux创建" sheetId="4" r:id="rId7"/>
-    <sheet name="Bus指派" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -33,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{52603ed7-8b13-4350-9197-f74053190046}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{cd185937-619d-4091-b72f-b6b7351b6e9d}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -64,7 +62,7 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF8F959E"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +76,13 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -100,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9F3FD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3370FF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -148,16 +152,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,94 +486,12 @@
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
-  </cols>
-  <sheetData>
-    <row customHeight="true" ht="19" r="1">
-      <c r="A1" s="2" t="str">
-        <v>若为非自动化生成的Bus，会置为深灰色（颜色为0），后续需要Check其功能</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="str">
-        <v>FFD9F3FD</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>若填充色为浅天蓝色，需要创建Unit</v>
-      </c>
-      <c r="C2" t="str">
-        <v>first_column_data[1]</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:T1"/>
-  </mergeCells>
-  <picture r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="1" t="str">
         <v>Mon</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="1" t="str">
         <v>Boss</v>
       </c>
       <c r="C1" s="2" t="str">
@@ -577,22 +499,22 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="str">
         <v>Foley</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="str">
         <v>Mov</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="str">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="str">
         <v>Mob</v>
       </c>
       <c r="C4" s="2" t="str">
@@ -603,32 +525,32 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="str">
         <v>Foley</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="str">
         <v>Mov</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="str">
         <v>Shout</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2" t="str">
         <v>ME</v>
       </c>
@@ -637,34 +559,34 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
         <v>Foley</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="str">
         <v>Mov</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
         <v>Shout</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="1" t="str">
         <v>Amb</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="1" t="str">
         <v>World</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -672,15 +594,15 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="2" t="str">
         <v>Point</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="str">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="str">
         <v>Weather</v>
       </c>
       <c r="C14" s="2" t="str">
@@ -689,43 +611,43 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="str">
         <v>Point</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="1" t="str">
         <v>Char</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="1" t="str">
         <v>Skill</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="str">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="str">
         <v>Foley</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="str">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="str">
         <v>Mov</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="str">
+      <c r="A19" s="1" t="str">
         <v>Imp</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="1" t="str">
         <v>Hit</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="str">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="str">
         <v>Firearm</v>
       </c>
       <c r="C20" t="str">
@@ -733,95 +655,95 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" t="str">
         <v>Launch</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="str">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="str">
         <v>Block</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="str">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="str">
         <v>Element</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="1" t="str">
         <v>Item</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="1" t="str">
         <v>Explore</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="str">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="str">
         <v>Func</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="str">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="str">
         <v>Reward</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="1" t="str">
         <v>Mus</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="1" t="str">
         <v>Explore</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="str">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="str">
         <v>Battle</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="str">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="str">
         <v>Menu</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="str">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="str">
         <v>Login</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="str">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="str">
         <v>Story</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="str">
+      <c r="A32" s="1" t="str">
         <v>Sys</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" s="1" t="str">
         <v>UI</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="str">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="str">
         <v>Show</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="str">
+      <c r="A34" s="1" t="str">
         <v>VO</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="1" t="str">
         <v>Battle</v>
       </c>
       <c r="C34" s="2" t="str">
@@ -835,8 +757,8 @@
       </c>
     </row>
     <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="str">
@@ -844,8 +766,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="str">
         <v>Mob</v>
@@ -853,8 +775,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="2" t="str">
         <v>Char</v>
       </c>
@@ -863,11 +785,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="str">
         <v>Dia</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>CG</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -907,111 +834,96 @@
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <sheetData/>
-  <picture r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="str">
-        <v>Bus名称：根据名称创建相应的Bus对象，并放置在相应父级下。名字需要带父级前缀，例如Amb_xxx
-Bus描述：会打在notes中
-Bus作用对象：会为这些对象设置相应Bus
-单源Ducking：需要为此Bus设置单独的Meter发送信号。
-多源Ducking：可以和其他Bus发送至同一Aux Bus下，为其设置Meter发送信号
-状态混音：采用针对State调节音量的方式混音</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+        <v>资源名称</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <v>资源描述</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <v>ducking对象</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <v>发送至aux bus</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <v>添加StateGroup</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <v>打断bus名称</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Bus名称</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>Bus描述</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>Bus作用对象</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>Bus混音方式：单源Ducking</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <v>Bus混音方式：多源Ducking</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <v>Bus混音方式：状态混音</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="A2" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>测试资源1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="A3" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>测试资源2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>Mon_Bossw_Skill_Atk3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>测试资源3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="str">
+        <v>Imp_Block_3dsad</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>测试资源4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>Aux_Ducking_aa</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>测试资源5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Aux_Ducking_Aa</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>测试资源6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="str">
+        <v>Mon_Boss_Skill</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>测试资源7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>Aux_Ducking</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>测试资源8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:T1"/>
-  </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{cd185937-619d-4091-b72f-b6b7351b6e9d}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{249b9b64-4031-4a7f-ba19-e75c5ab46fdf}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>

--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{249b9b64-4031-4a7f-ba19-e75c5ab46fdf}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{53a145dc-c7bc-4fac-b8c8-5901c2f561ba}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -836,6 +836,8 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
   </cols>
   <sheetData>
@@ -866,64 +868,112 @@
       <c r="B2" s="2" t="str">
         <v>测试资源1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="C2" s="2" t="str">
         <v>Mon_Boss_Skill_Atk2</v>
       </c>
-      <c r="B3" s="2" t="str">
+    </row>
+    <row customHeight="true" ht="19" r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk2</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <v>测试资源2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>Mon_Bossw_Skill_Atk3</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>测试资源3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="str">
-        <v>Imp_Block_3dsad</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>测试资源4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
+        <v>Mon_Bossw_Skill_Atk3</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>测试资源3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="str">
+        <v>Imp_Block_3dsad</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>测试资源4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="str">
         <v>Aux_Ducking_aa</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <v>测试资源5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Aux_Ducking_Aa</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>测试资源6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="str">
-        <v>Mon_Boss_Skill</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>测试资源7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
+        <v>Aux_Ducking_Aa</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>测试资源6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="str">
+        <v>Mon_Boss_Skill</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>测试资源7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="str">
         <v>Aux_Ducking</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B11" s="2" t="str">
         <v>测试资源8</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk3</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>测试资源9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk4</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>测试资源10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk5</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>测试资源11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{53a145dc-c7bc-4fac-b8c8-5901c2f561ba}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{4c2b0a55-bb78-46f4-97aa-03c0c7667f08}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -863,7 +863,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk1</v>
+        <v>Mon_Boss_Skill_Atk8</v>
       </c>
       <c r="B2" s="2" t="str">
         <v>测试资源1</v>
@@ -892,6 +892,9 @@
       </c>
       <c r="B5" s="2" t="str">
         <v>测试资源2</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk6</v>
       </c>
     </row>
     <row r="6">

--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{4c2b0a55-bb78-46f4-97aa-03c0c7667f08}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{814d8c13-5f82-46f3-9901-d178099800e7}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -863,7 +863,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk8</v>
+        <v>Mon_Boss_Skill_Atk9</v>
       </c>
       <c r="B2" s="2" t="str">
         <v>测试资源1</v>
@@ -894,7 +894,7 @@
         <v>测试资源2</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk6</v>
+        <v>Mon_Boss_Skill_Atk4</v>
       </c>
     </row>
     <row r="6">

--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{814d8c13-5f82-46f3-9901-d178099800e7}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{dc4215e2-466f-4592-a4c3-79bbc3454c62}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -837,7 +837,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
   </cols>
   <sheetData>
@@ -849,16 +849,16 @@
         <v>资源描述</v>
       </c>
       <c r="C1" s="4" t="str">
+        <v>发送至aux bus</v>
+      </c>
+      <c r="D1" s="4" t="str">
         <v>ducking对象</v>
-      </c>
-      <c r="D1" s="4" t="str">
-        <v>发送至aux bus</v>
       </c>
       <c r="E1" s="4" t="str">
         <v>添加StateGroup</v>
       </c>
       <c r="F1" s="4" t="str">
-        <v>打断bus名称</v>
+        <v>打断bus的event</v>
       </c>
     </row>
     <row r="2">
@@ -868,21 +868,24 @@
       <c r="B2" s="2" t="str">
         <v>测试资源1</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="D2" s="3" t="str">
         <v>Mon_Boss_Skill_Atk2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Process_State</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="str">
+      <c r="D3" s="3" t="str">
         <v>Mon_Boss_Skill_Atk3</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
+      <c r="D4" s="3" t="str">
         <v>Mon_Boss_Skill_Atk4</v>
       </c>
     </row>
@@ -893,7 +896,7 @@
       <c r="B5" s="2" t="str">
         <v>测试资源2</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="D5" s="3" t="str">
         <v>Mon_Boss_Skill_Atk4</v>
       </c>
     </row>
@@ -904,6 +907,10 @@
       <c r="B6" s="2" t="str">
         <v>测试资源3</v>
       </c>
+      <c r="C6" s="2" t="str">
+        <v>Aux_Ducking_Aa</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="str">
@@ -912,6 +919,10 @@
       <c r="B7" s="2" t="str">
         <v>测试资源4</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="F7" t="str">
+        <v>AKE_Play_Amb_A01_MgSt_Bird06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
@@ -920,6 +931,7 @@
       <c r="B8" s="2" t="str">
         <v>测试资源5</v>
       </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
@@ -928,6 +940,15 @@
       <c r="B9" s="2" t="str">
         <v>测试资源6</v>
       </c>
+      <c r="D9" s="3" t="str">
+        <v>Mon_Boss_Skill_Atk9</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Time_Type</v>
+      </c>
+      <c r="F9" t="str">
+        <v>AKE_Play_Char_Skill_C01_Atk3_End</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="str">
@@ -936,6 +957,7 @@
       <c r="B10" s="2" t="str">
         <v>测试资源7</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
@@ -944,6 +966,7 @@
       <c r="B11" s="2" t="str">
         <v>测试资源8</v>
       </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
@@ -952,6 +975,7 @@
       <c r="B12" s="2" t="str">
         <v>测试资源9</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
@@ -960,6 +984,13 @@
       <c r="B13" s="2" t="str">
         <v>测试资源10</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" t="str">
+        <v>Story_Type</v>
+      </c>
+      <c r="F13" t="str">
+        <v>AKE_Play_Char_Skill_C01_Atk_Rush_Step_End</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
@@ -968,14 +999,582 @@
       <c r="B14" s="2" t="str">
         <v>测试资源11</v>
       </c>
+      <c r="C14" s="2" t="str">
+        <v>Aux_Ducking_Aa</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>

--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{dc4215e2-466f-4592-a4c3-79bbc3454c62}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{39f23cbf-c3aa-48d0-8141-37ceb1de2880}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
@@ -934,89 +934,111 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>Aux_Ducking_Aa</v>
+      <c r="A9" s="3" t="str">
+        <v>Mon_Boss_Skill</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>测试资源6</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>Mon_Boss_Skill_Atk9</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Time_Type</v>
-      </c>
-      <c r="F9" t="str">
-        <v>AKE_Play_Char_Skill_C01_Atk3_End</v>
-      </c>
+        <v>测试资源7</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="str">
-        <v>Mon_Boss_Skill</v>
+      <c r="A10" s="2" t="str">
+        <v>Aux_Ducking</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>测试资源7</v>
+        <v>测试资源8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>Aux_Ducking</v>
+        <v>Mon_Boss_Skill_Atk3</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>测试资源8</v>
+        <v>测试资源9</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <v>Aux_Ducking_Aa1</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk3</v>
+        <v>Mon_Boss_Skill_Atk4</v>
       </c>
       <c r="B12" s="2" t="str">
-        <v>测试资源9</v>
+        <v>测试资源10</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="E12" t="str">
+        <v>Story_Type</v>
+      </c>
+      <c r="F12" t="str">
+        <v>AKE_Play_Char_Skill_C01_Atk_Rush_Step_End</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk4</v>
+        <v>Mon_Boss_Skill_Atk5</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>测试资源10</v>
+        <v>测试资源11</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <v>Aux_Ducking_Aa</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" t="str">
-        <v>Story_Type</v>
-      </c>
-      <c r="F13" t="str">
-        <v>AKE_Play_Char_Skill_C01_Atk_Rush_Step_End</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>Mon_Boss_Skill_Atk5</v>
+        <v>Aux_Ducking_Aa</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>测试资源11</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>Aux_Ducking_Aa</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>测试资源12</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk4</v>
+      </c>
     </row>
     <row r="15">
+      <c r="A15" s="2" t="str">
+        <v>Aux_Ducking_Aa1</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>测试资源13</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Aux_Ducking_Aa2</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>测试资源14</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk6</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>测试资源15</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>Mon_Boss_Skill_Atk7</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>测试资源16</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
+      <c r="A19" s="2"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
@@ -1561,12 +1583,6 @@
     </row>
     <row r="200">
       <c r="D200" s="3"/>
-    </row>
-    <row r="201">
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202">
-      <c r="D202" s="3"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/files/Bus自动化/Bus资源表.xlsx
+++ b/files/Bus自动化/Bus资源表.xlsx
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{39f23cbf-c3aa-48d0-8141-37ceb1de2880}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{b9bba807-b33f-482c-b232-74ea08a46a98}">
       <text>
         <r>
           <t>包括Cut、Stab、Punch</t>
